--- a/Assets/06.Table/ColdSeasonAtten.xlsx
+++ b/Assets/06.Table/ColdSeasonAtten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38EB8A6-76E9-4B66-89C3-A0D67AB4F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F3B5ED-1905-43AC-AA6C-9C3713F5798E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -523,7 +523,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
@@ -543,7 +543,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
@@ -563,7 +563,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="1">
         <v>46</v>
@@ -623,7 +623,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
@@ -643,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -663,7 +663,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="1">
         <v>46</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="1">
         <v>30</v>
@@ -743,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E14" s="1">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="1">
         <v>46</v>
@@ -823,7 +823,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E18" s="1">
         <v>30</v>
@@ -843,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
@@ -863,7 +863,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="1">
         <v>46</v>
